--- a/src/test/resources/Rules.xlsx
+++ b/src/test/resources/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinivaschiranji/git/TreeDecisionEngine/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinivaschiranji/git/TreeDecisionEngine/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C063A-51C8-D84E-B8D1-BAEFD5578510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913AC8F-EA98-3540-BDB2-B8DC69B1699D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16100" xr2:uid="{6B8835FC-8C0A-8540-A423-D1DFC15779E2}"/>
+    <workbookView xWindow="780" yWindow="900" windowWidth="27640" windowHeight="16100" xr2:uid="{6B8835FC-8C0A-8540-A423-D1DFC15779E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,29 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Basic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>1 == 1</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>fico &gt; 800</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>suits.equals("Y")</t>
   </si>
   <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
     <t>delinquencies == 5</t>
   </si>
   <si>
@@ -66,6 +54,27 @@
   </si>
   <si>
     <t>lot delinqs</t>
+  </si>
+  <si>
+    <t>always true</t>
+  </si>
+  <si>
+    <t>5 ==5</t>
+  </si>
+  <si>
+    <t>2==2</t>
+  </si>
+  <si>
+    <t>3==3</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>score=25</t>
   </si>
 </sst>
 </file>
@@ -417,56 +426,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917E80CE-2821-2E44-B9A4-145225E67797}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
